--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Datascience\Prius_consommation\Prius_gas_type\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="15000" windowHeight="7995"/>
   </bookViews>
@@ -93,13 +98,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -170,7 +178,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,7 +213,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -421,7 +429,7 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
@@ -4168,7 +4176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4180,7 +4188,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/measurements.xlsx
+++ b/measurements.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Datascience\Prius_consommation\Prius_gas_type\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andreas\Datascience\Prius_consommation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
   <si>
     <t>distance</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>gas_type</t>
+  </si>
+  <si>
+    <t>rain ac</t>
   </si>
 </sst>
 </file>
@@ -114,8 +117,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I141" totalsRowShown="0">
-  <autoFilter ref="A1:I141">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I156" totalsRowShown="0">
+  <autoFilter ref="A1:I156">
     <filterColumn colId="8">
       <filters blank="1"/>
     </filterColumn>
@@ -422,11 +425,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141:G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4160,6 +4163,417 @@
       </c>
       <c r="I141">
         <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B142">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="C142">
+        <v>41</v>
+      </c>
+      <c r="D142">
+        <v>21.5</v>
+      </c>
+      <c r="E142">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s">
+        <v>5</v>
+      </c>
+      <c r="H142">
+        <v>0</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143">
+        <v>20.8</v>
+      </c>
+      <c r="B143">
+        <v>4.5</v>
+      </c>
+      <c r="C143">
+        <v>45</v>
+      </c>
+      <c r="D143">
+        <v>21.5</v>
+      </c>
+      <c r="E143">
+        <v>10</v>
+      </c>
+      <c r="G143" t="s">
+        <v>5</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144">
+        <v>1.7</v>
+      </c>
+      <c r="B144">
+        <v>10.8</v>
+      </c>
+      <c r="C144">
+        <v>14</v>
+      </c>
+      <c r="D144">
+        <v>21.5</v>
+      </c>
+      <c r="E144">
+        <v>11</v>
+      </c>
+      <c r="F144" t="s">
+        <v>8</v>
+      </c>
+      <c r="G144" t="s">
+        <v>5</v>
+      </c>
+      <c r="H144">
+        <v>0</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145">
+        <v>35.9</v>
+      </c>
+      <c r="B145">
+        <v>4.7</v>
+      </c>
+      <c r="C145">
+        <v>45</v>
+      </c>
+      <c r="D145">
+        <v>21.5</v>
+      </c>
+      <c r="E145">
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>5</v>
+      </c>
+      <c r="H145">
+        <v>0</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146">
+        <v>36.9</v>
+      </c>
+      <c r="B146">
+        <v>4.8</v>
+      </c>
+      <c r="C146">
+        <v>52</v>
+      </c>
+      <c r="D146">
+        <v>21.5</v>
+      </c>
+      <c r="E146">
+        <v>5</v>
+      </c>
+      <c r="G146" t="s">
+        <v>5</v>
+      </c>
+      <c r="H146">
+        <v>0</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147">
+        <v>16.8</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147">
+        <v>46</v>
+      </c>
+      <c r="D147">
+        <v>21.5</v>
+      </c>
+      <c r="E147">
+        <v>8</v>
+      </c>
+      <c r="G147" t="s">
+        <v>5</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148">
+        <v>9.9</v>
+      </c>
+      <c r="B148">
+        <v>5</v>
+      </c>
+      <c r="C148">
+        <v>28</v>
+      </c>
+      <c r="D148">
+        <v>21.5</v>
+      </c>
+      <c r="E148">
+        <v>9</v>
+      </c>
+      <c r="G148" t="s">
+        <v>5</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149">
+        <v>22.9</v>
+      </c>
+      <c r="B149">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C149">
+        <v>61</v>
+      </c>
+      <c r="D149">
+        <v>21.5</v>
+      </c>
+      <c r="E149">
+        <v>7</v>
+      </c>
+      <c r="F149" t="s">
+        <v>8</v>
+      </c>
+      <c r="G149" t="s">
+        <v>5</v>
+      </c>
+      <c r="H149">
+        <v>0</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150">
+        <v>17.3</v>
+      </c>
+      <c r="B150">
+        <v>5</v>
+      </c>
+      <c r="C150">
+        <v>61</v>
+      </c>
+      <c r="D150">
+        <v>21.5</v>
+      </c>
+      <c r="E150">
+        <v>6</v>
+      </c>
+      <c r="F150" t="s">
+        <v>13</v>
+      </c>
+      <c r="G150" t="s">
+        <v>5</v>
+      </c>
+      <c r="H150">
+        <v>1</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151">
+        <v>11.8</v>
+      </c>
+      <c r="B151">
+        <v>4.3</v>
+      </c>
+      <c r="C151">
+        <v>37</v>
+      </c>
+      <c r="D151">
+        <v>21.5</v>
+      </c>
+      <c r="E151">
+        <v>7</v>
+      </c>
+      <c r="G151" t="s">
+        <v>5</v>
+      </c>
+      <c r="H151">
+        <v>0</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152">
+        <v>36.6</v>
+      </c>
+      <c r="B152">
+        <v>5.2</v>
+      </c>
+      <c r="C152">
+        <v>80</v>
+      </c>
+      <c r="D152">
+        <v>21.5</v>
+      </c>
+      <c r="E152">
+        <v>7</v>
+      </c>
+      <c r="F152" t="s">
+        <v>8</v>
+      </c>
+      <c r="G152" t="s">
+        <v>5</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153">
+        <v>44.9</v>
+      </c>
+      <c r="B153">
+        <v>4.7</v>
+      </c>
+      <c r="C153">
+        <v>62</v>
+      </c>
+      <c r="D153">
+        <v>21.5</v>
+      </c>
+      <c r="E153">
+        <v>8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>5</v>
+      </c>
+      <c r="H153">
+        <v>0</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154">
+        <v>11.8</v>
+      </c>
+      <c r="B154">
+        <v>4.2</v>
+      </c>
+      <c r="C154">
+        <v>34</v>
+      </c>
+      <c r="D154">
+        <v>21.5</v>
+      </c>
+      <c r="E154">
+        <v>9</v>
+      </c>
+      <c r="F154" t="s">
+        <v>8</v>
+      </c>
+      <c r="G154" t="s">
+        <v>5</v>
+      </c>
+      <c r="H154">
+        <v>0</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155">
+        <v>21.6</v>
+      </c>
+      <c r="B155">
+        <v>5.3</v>
+      </c>
+      <c r="C155">
+        <v>44</v>
+      </c>
+      <c r="D155">
+        <v>21.5</v>
+      </c>
+      <c r="E155">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" t="s">
+        <v>5</v>
+      </c>
+      <c r="H155">
+        <v>0</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156">
+        <v>39.4</v>
+      </c>
+      <c r="B156">
+        <v>5.3</v>
+      </c>
+      <c r="C156">
+        <v>60</v>
+      </c>
+      <c r="D156">
+        <v>21.5</v>
+      </c>
+      <c r="E156">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>8</v>
+      </c>
+      <c r="G156" t="s">
+        <v>5</v>
+      </c>
+      <c r="H156">
+        <v>0</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
